--- a/ha-asset/01_design/91_エラーコード.xlsx
+++ b/ha-asset/01_design/91_エラーコード.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\01_design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A49708-10C4-4BDB-8C70-115EE9FB4A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F49F988-2C9C-4787-ADD8-A6B0582521F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,9 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -541,6 +538,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,14 +958,16 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="27" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +998,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+    <row r="2" spans="1:27" ht="16.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1025,21 +1027,21 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1">
+    <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="15"/>
@@ -1060,15 +1062,15 @@
       <c r="Z3" s="16"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+    <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>44030</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="15"/>
@@ -1095,13 +1097,13 @@
       <c r="Z4" s="16"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+    <row r="5" spans="1:27" ht="16.5">
       <c r="A5" s="3"/>
-      <c r="B5" s="17"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="18"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="16"/>
@@ -1124,13 +1126,13 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+    <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="17"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
@@ -1153,7 +1155,7 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1">
+    <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="3"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -1182,7 +1184,7 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1">
+    <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="3"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
@@ -1211,7 +1213,7 @@
       <c r="Z8" s="16"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+    <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="3"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -1240,7 +1242,7 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+    <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="3"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -1269,7 +1271,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1">
+    <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="3"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -1298,7 +1300,7 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1">
+    <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="3"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -1327,7 +1329,7 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+    <row r="13" spans="1:27" ht="16.5">
       <c r="A13" s="3"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
@@ -1356,7 +1358,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1">
+    <row r="14" spans="1:27" ht="16.5">
       <c r="A14" s="3"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
@@ -1385,7 +1387,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1">
+    <row r="15" spans="1:27" ht="16.5">
       <c r="A15" s="3"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
@@ -1414,7 +1416,7 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1">
+    <row r="16" spans="1:27" ht="16.5">
       <c r="A16" s="3"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
@@ -1443,7 +1445,7 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1">
+    <row r="17" spans="1:27" ht="16.5">
       <c r="A17" s="3"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -1472,7 +1474,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1">
+    <row r="18" spans="1:27" ht="16.5">
       <c r="A18" s="3"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
@@ -1501,7 +1503,7 @@
       <c r="Z18" s="16"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1">
+    <row r="19" spans="1:27" ht="16.5">
       <c r="A19" s="3"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
@@ -1530,7 +1532,7 @@
       <c r="Z19" s="16"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1">
+    <row r="20" spans="1:27" ht="16.5">
       <c r="A20" s="3"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
@@ -1559,7 +1561,7 @@
       <c r="Z20" s="16"/>
       <c r="AA20" s="3"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1">
+    <row r="21" spans="1:27" ht="16.5">
       <c r="A21" s="3"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
@@ -1588,7 +1590,7 @@
       <c r="Z21" s="16"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1">
+    <row r="22" spans="1:27" ht="16.5">
       <c r="A22" s="3"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
@@ -1617,7 +1619,7 @@
       <c r="Z22" s="16"/>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1">
+    <row r="23" spans="1:27" ht="16.5">
       <c r="A23" s="3"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -1646,7 +1648,7 @@
       <c r="Z23" s="16"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1">
+    <row r="24" spans="1:27" ht="16.5">
       <c r="A24" s="3"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
@@ -1675,7 +1677,7 @@
       <c r="Z24" s="16"/>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1">
+    <row r="25" spans="1:27" ht="16.5">
       <c r="A25" s="3"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -1704,7 +1706,7 @@
       <c r="Z25" s="16"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1">
+    <row r="26" spans="1:27" ht="16.5">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1733,7 +1735,7 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:27" ht="16.5">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1764,6 +1766,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -1773,66 +1835,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1849,12 +1851,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="13" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" style="13" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="13" customWidth="1"/>
     <col min="4" max="4" width="13" style="13" customWidth="1"/>
@@ -1864,7 +1866,7 @@
     <col min="8" max="16384" width="14.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1887,7 +1889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+    <row r="2" spans="1:7">
       <c r="A2" s="6">
         <f t="shared" ref="A2:A48" si="0">ROW()-1</f>
         <v>1</v>
@@ -1910,7 +1912,7 @@
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+    <row r="3" spans="1:7">
       <c r="A3" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1933,7 +1935,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+    <row r="4" spans="1:7">
       <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1956,7 +1958,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1979,7 +1981,7 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+    <row r="6" spans="1:7">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2002,7 +2004,7 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+    <row r="7" spans="1:7">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2025,7 +2027,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+    <row r="8" spans="1:7">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2048,7 +2050,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+    <row r="9" spans="1:7">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2071,7 +2073,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1">
+    <row r="10" spans="1:7">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2094,7 +2096,7 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+    <row r="11" spans="1:7">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2117,7 +2119,7 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1">
+    <row r="12" spans="1:7">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2140,7 +2142,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1">
+    <row r="13" spans="1:7">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2163,7 +2165,7 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1">
+    <row r="14" spans="1:7">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2186,7 +2188,7 @@
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1">
+    <row r="15" spans="1:7">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2209,7 +2211,7 @@
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1">
+    <row r="16" spans="1:7">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2232,7 +2234,7 @@
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1">
+    <row r="17" spans="1:7">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2255,7 +2257,7 @@
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1">
+    <row r="18" spans="1:7">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2278,7 +2280,7 @@
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1">
+    <row r="19" spans="1:7">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2301,7 +2303,7 @@
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1">
+    <row r="20" spans="1:7">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2324,7 +2326,7 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1">
+    <row r="21" spans="1:7">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2347,7 +2349,7 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1">
+    <row r="22" spans="1:7">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2370,7 +2372,7 @@
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1">
+    <row r="23" spans="1:7">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2393,7 +2395,7 @@
       </c>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1">
+    <row r="24" spans="1:7">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2416,7 +2418,7 @@
       </c>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1">
+    <row r="25" spans="1:7">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2439,7 +2441,7 @@
       </c>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1">
+    <row r="26" spans="1:7">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2462,7 +2464,7 @@
       </c>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1">
+    <row r="27" spans="1:7">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2485,7 +2487,7 @@
       </c>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1">
+    <row r="28" spans="1:7">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2508,7 +2510,7 @@
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1">
+    <row r="29" spans="1:7">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2531,7 +2533,7 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1">
+    <row r="30" spans="1:7">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2554,7 +2556,7 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1">
+    <row r="31" spans="1:7">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2577,7 +2579,7 @@
       </c>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1">
+    <row r="32" spans="1:7">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2600,7 +2602,7 @@
       </c>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1">
+    <row r="33" spans="1:7">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2623,7 +2625,7 @@
       </c>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1">
+    <row r="34" spans="1:7">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2646,7 +2648,7 @@
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1">
+    <row r="35" spans="1:7">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2669,7 +2671,7 @@
       </c>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1">
+    <row r="36" spans="1:7">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2692,7 +2694,7 @@
       </c>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1">
+    <row r="37" spans="1:7">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2715,7 +2717,7 @@
       </c>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1">
+    <row r="38" spans="1:7">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2738,7 +2740,7 @@
       </c>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1">
+    <row r="39" spans="1:7">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2761,7 +2763,7 @@
       </c>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1">
+    <row r="40" spans="1:7">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2776,7 +2778,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1">
+    <row r="41" spans="1:7">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2791,7 +2793,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1">
+    <row r="42" spans="1:7">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2806,7 +2808,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1">
+    <row r="43" spans="1:7">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2821,7 +2823,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1">
+    <row r="44" spans="1:7">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2836,7 +2838,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1">
+    <row r="45" spans="1:7">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2851,7 +2853,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1">
+    <row r="46" spans="1:7">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2866,7 +2868,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1">
+    <row r="47" spans="1:7">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2881,7 +2883,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1">
+    <row r="48" spans="1:7">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>47</v>

--- a/ha-asset/01_design/91_エラーコード.xlsx
+++ b/ha-asset/01_design/91_エラーコード.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F49F988-2C9C-4787-ADD8-A6B0582521F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5EF79F-5DFD-49E4-86DD-5292A0CC149A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="570" windowWidth="20715" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="固定値" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$G$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$H$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
-    <definedName name="Z_9C5975FA_2BBB_426C_A314_4AD02EB0E158_.wvu.FilterData" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$G$48</definedName>
+    <definedName name="Z_9C5975FA_2BBB_426C_A314_4AD02EB0E158_.wvu.FilterData" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$H$58</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
@@ -42,6 +42,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>=IF(B2="","",D2&amp;E2&amp;TEXT(A2,"0000"))</t>
         </r>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="133">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -338,6 +339,157 @@
   <si>
     <t>健康情報計算API-カロリー計算APIの通信に失敗しました</t>
   </si>
+  <si>
+    <t>エラーメッセージ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>指定したアカウントは不正です</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>指定したアカウントは削除されています</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>指定したアカウントは存在しません</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パスワードが一致しません</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>指定したアカウントは有効期限を超過しています</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>不正リクエストエラーが発生しました</t>
+  </si>
+  <si>
+    <t>指定したユーザでAPIを実行出来ません</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>必須項目が指定されていません</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>リクエスト種別が不正です</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>S3からのダウンロード処理が失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>S3からのアップロード処理が失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>AWSへの接続に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SDKによる接続に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>基礎健康情報計算APIの通信に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カロリー計算APIの通信に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>送信先メールアドレスがSESに認証されていません&lt;br&gt;メールアドレスを確認するように連絡してください</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>肺活量計算APIの通信に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Token発行APIの通信に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>実行時にエラーが発生しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>予期せぬエラーが発生しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アルゴリズムが不正です</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DBが不正なため、暗号化と復号に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DBへの接続に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SQLの実行に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DBの検索に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DB切断に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>API通信に失敗しました、サーバの状態が正しくないため管理者に連絡して下さい</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>指定されたデータが存在しません</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>JSONのフォーマットが不正です</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>JSONとのマッピングに失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>JSONが不正です</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ファイルアップロードに失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ファイルの読込に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ファイルの書込に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>該当のデータが複数存在します</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>入力チェックエラーが発生しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>てｓｔ</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -346,7 +498,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -376,6 +528,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -389,6 +542,12 @@
       <name val="Meiryo"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -487,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -527,6 +686,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -539,8 +701,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,19 +1194,19 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="15"/>
@@ -1064,13 +1229,13 @@
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="19">
+      <c r="B4" s="20">
         <v>44030</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="15"/>
@@ -1099,11 +1264,11 @@
     </row>
     <row r="5" spans="1:27" ht="16.5">
       <c r="A5" s="3"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="16"/>
@@ -1128,11 +1293,11 @@
     </row>
     <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="21"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
@@ -1766,12 +1931,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1781,60 +1994,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1847,26 +2012,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" style="13" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="13" customWidth="1"/>
     <col min="4" max="4" width="13" style="13" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="75.5703125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="57.28515625" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="13"/>
+    <col min="6" max="7" width="51.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="57.28515625" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" ht="23.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1883,22 +2048,25 @@
         <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="6">
-        <f t="shared" ref="A2:A48" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A58" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="8" t="str">
-        <f t="shared" ref="C2:C48" si="1">IF(B2="","",D2&amp;E2&amp;TEXT(A2,"0000"))</f>
+        <f t="shared" ref="C2:C58" si="1">IF(B2="","",D2&amp;E2&amp;TEXT(A2,"0000"))</f>
         <v>CE0001</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -1907,12 +2075,15 @@
       <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1930,12 +2101,15 @@
       <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1953,12 +2127,15 @@
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1976,12 +2153,15 @@
       <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1999,12 +2179,15 @@
       <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2022,12 +2205,15 @@
       <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2045,12 +2231,15 @@
       <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2068,12 +2257,15 @@
       <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2091,12 +2283,15 @@
       <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2114,12 +2309,15 @@
       <c r="E11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2137,12 +2335,15 @@
       <c r="E12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2160,12 +2361,15 @@
       <c r="E13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2183,12 +2387,15 @@
       <c r="E14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2206,12 +2413,15 @@
       <c r="E15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2229,12 +2439,15 @@
       <c r="E16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2252,12 +2465,15 @@
       <c r="E17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2275,12 +2491,15 @@
       <c r="E18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2298,12 +2517,15 @@
       <c r="E19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2321,12 +2543,15 @@
       <c r="E20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2344,12 +2569,15 @@
       <c r="E21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2367,12 +2595,15 @@
       <c r="E22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2390,12 +2621,15 @@
       <c r="E23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2413,12 +2647,15 @@
       <c r="E24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2436,12 +2673,15 @@
       <c r="E25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2459,12 +2699,15 @@
       <c r="E26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2482,12 +2725,15 @@
       <c r="E27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2505,12 +2751,15 @@
       <c r="E28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2528,12 +2777,15 @@
       <c r="E29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2551,12 +2803,15 @@
       <c r="E30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2574,12 +2829,15 @@
       <c r="E31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2597,12 +2855,15 @@
       <c r="E32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" ht="33">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2620,12 +2881,15 @@
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2643,12 +2907,15 @@
       <c r="E34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" ht="33">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2666,12 +2933,15 @@
       <c r="E35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" ht="33">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2689,12 +2959,15 @@
       <c r="E36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" ht="33">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2712,12 +2985,15 @@
       <c r="E37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2735,12 +3011,15 @@
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2758,27 +3037,30 @@
       <c r="E39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B40" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2790,10 +3072,11 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2805,10 +3088,11 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2820,10 +3104,11 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2835,71 +3120,206 @@
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="8" t="str">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="6">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="6">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="6">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G48" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:H58" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
     <customSheetView guid="{9C5975FA-2BBB-426C-A314-4AD02EB0E158}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2907,32 +3327,32 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="5"/>
-  <conditionalFormatting sqref="D2:D37 D40:D48">
+  <conditionalFormatting sqref="D2:D37 D40:D58">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D37 D40:D48">
+  <conditionalFormatting sqref="D2:D37 D40:D58">
     <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D37 D40:D48">
+  <conditionalFormatting sqref="D2:D37 D40:D58">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E37 E40:E48">
+  <conditionalFormatting sqref="E2:E37 E40:E58">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E37 E40:E48">
+  <conditionalFormatting sqref="E2:E37 E40:E58">
     <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D37 D40:D48">
+  <conditionalFormatting sqref="D2:D37 D40:D58">
     <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"B"</formula>
     </cfRule>
@@ -2968,7 +3388,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="28" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="21" max="16383" man="1"/>
     <brk id="41" max="16383" man="1"/>
@@ -2981,13 +3401,13 @@
           <x14:formula1>
             <xm:f>固定値!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E48</xm:sqref>
+          <xm:sqref>E2:E58</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>固定値!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D48</xm:sqref>
+          <xm:sqref>D2:D58</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ha-asset/01_design/91_エラーコード.xlsx
+++ b/ha-asset/01_design/91_エラーコード.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5EF79F-5DFD-49E4-86DD-5292A0CC149A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31F64E4-222C-4158-A057-B3548737C5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="570" windowWidth="20715" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22305" yWindow="2265" windowWidth="21555" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="132">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -486,10 +486,6 @@
     <t>入力チェックエラーが発生しました</t>
     <phoneticPr fontId="5"/>
   </si>
-  <si>
-    <t>てｓｔ</t>
-    <phoneticPr fontId="5"/>
-  </si>
 </sst>
 </file>
 
@@ -681,14 +677,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -701,11 +700,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,681 +1190,681 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="18"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="20">
+      <c r="B4" s="21">
         <v>44030</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="21" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="18"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="16.5">
       <c r="A5" s="3"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="16"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="18"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="16"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="18"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="3"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="18"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="18"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="3"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="18"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="3"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="18"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="3"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="18"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="3"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="18"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="16.5">
       <c r="A13" s="3"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="18"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27" ht="16.5">
       <c r="A14" s="3"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="18"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="16.5">
       <c r="A15" s="3"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="18"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="16.5">
       <c r="A16" s="3"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="18"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" ht="16.5">
       <c r="A17" s="3"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="18"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" ht="16.5">
       <c r="A18" s="3"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="18"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" ht="16.5">
       <c r="A19" s="3"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="18"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" ht="16.5">
       <c r="A20" s="3"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="18"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" ht="16.5">
       <c r="A21" s="3"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="18"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27" ht="16.5">
       <c r="A22" s="3"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="18"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27" ht="16.5">
       <c r="A23" s="3"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="18"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27" ht="16.5">
       <c r="A24" s="3"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="18"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27" ht="16.5">
       <c r="A25" s="3"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="18"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27" ht="16.5">
@@ -1931,6 +1927,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -1940,66 +1996,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2015,8 +2011,8 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -2075,10 +2071,10 @@
       <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="10"/>
@@ -2101,10 +2097,10 @@
       <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="10"/>
@@ -2127,10 +2123,10 @@
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="10"/>
@@ -2153,10 +2149,10 @@
       <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="10"/>
@@ -2179,10 +2175,10 @@
       <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="10"/>
@@ -2205,10 +2201,10 @@
       <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="10"/>
@@ -2231,10 +2227,10 @@
       <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="10"/>
@@ -2257,10 +2253,10 @@
       <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="14" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="10"/>
@@ -2283,10 +2279,10 @@
       <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="10"/>
@@ -2309,10 +2305,10 @@
       <c r="E11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="14" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="10"/>
@@ -2335,10 +2331,10 @@
       <c r="E12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="14" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="10"/>
@@ -2361,10 +2357,10 @@
       <c r="E13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="10"/>
@@ -2387,10 +2383,10 @@
       <c r="E14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="10"/>
@@ -2413,10 +2409,10 @@
       <c r="E15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="10"/>
@@ -2439,10 +2435,10 @@
       <c r="E16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H16" s="10"/>
@@ -2465,10 +2461,10 @@
       <c r="E17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H17" s="10"/>
@@ -2491,10 +2487,10 @@
       <c r="E18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H18" s="10"/>
@@ -2517,10 +2513,10 @@
       <c r="E19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="14" t="s">
         <v>52</v>
       </c>
       <c r="H19" s="10"/>
@@ -2543,10 +2539,10 @@
       <c r="E20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="14" t="s">
         <v>54</v>
       </c>
       <c r="H20" s="10"/>
@@ -2569,10 +2565,10 @@
       <c r="E21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="14" t="s">
         <v>56</v>
       </c>
       <c r="H21" s="10"/>
@@ -2595,10 +2591,10 @@
       <c r="E22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="14" t="s">
         <v>59</v>
       </c>
       <c r="H22" s="10"/>
@@ -2621,10 +2617,10 @@
       <c r="E23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="14" t="s">
         <v>61</v>
       </c>
       <c r="H23" s="10"/>
@@ -2647,10 +2643,10 @@
       <c r="E24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="14" t="s">
         <v>63</v>
       </c>
       <c r="H24" s="10"/>
@@ -2673,10 +2669,10 @@
       <c r="E25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="14" t="s">
         <v>65</v>
       </c>
       <c r="H25" s="10"/>
@@ -2699,10 +2695,10 @@
       <c r="E26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="14" t="s">
         <v>67</v>
       </c>
       <c r="H26" s="10"/>
@@ -2725,10 +2721,10 @@
       <c r="E27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="14" t="s">
         <v>69</v>
       </c>
       <c r="H27" s="10"/>
@@ -2751,10 +2747,10 @@
       <c r="E28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="14" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="10"/>
@@ -2777,10 +2773,10 @@
       <c r="E29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="14" t="s">
         <v>74</v>
       </c>
       <c r="H29" s="10"/>
@@ -2803,10 +2799,10 @@
       <c r="E30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="14" t="s">
         <v>76</v>
       </c>
       <c r="H30" s="10"/>
@@ -2829,10 +2825,10 @@
       <c r="E31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="14" t="s">
         <v>78</v>
       </c>
       <c r="H31" s="10"/>
@@ -2855,10 +2851,10 @@
       <c r="E32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="14" t="s">
         <v>80</v>
       </c>
       <c r="H32" s="10"/>
@@ -2872,7 +2868,7 @@
         <v>81</v>
       </c>
       <c r="C33" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B33="","",D33&amp;E33&amp;TEXT(A33,"0000"))</f>
         <v>BE0032</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -2881,10 +2877,10 @@
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="14" t="s">
         <v>93</v>
       </c>
       <c r="H33" s="10"/>
@@ -2907,10 +2903,10 @@
       <c r="E34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="14" t="s">
         <v>94</v>
       </c>
       <c r="H34" s="10"/>
@@ -2933,10 +2929,10 @@
       <c r="E35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="14" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="10"/>
@@ -2959,10 +2955,10 @@
       <c r="E36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="14" t="s">
         <v>86</v>
       </c>
       <c r="H36" s="10"/>
@@ -2985,10 +2981,10 @@
       <c r="E37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="14" t="s">
         <v>88</v>
       </c>
       <c r="H37" s="10"/>
@@ -3011,10 +3007,10 @@
       <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="14" t="s">
         <v>91</v>
       </c>
       <c r="H38" s="10"/>
@@ -3037,10 +3033,10 @@
       <c r="E39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="14" t="s">
         <v>92</v>
       </c>
       <c r="H39" s="10"/>
@@ -3050,14 +3046,12 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="B40" s="10"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8">
@@ -3072,8 +3066,8 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8">
@@ -3088,8 +3082,8 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8">
@@ -3104,8 +3098,8 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8">
@@ -3120,8 +3114,8 @@
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8">
@@ -3133,8 +3127,8 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8">
@@ -3146,8 +3140,8 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8">
@@ -3159,8 +3153,8 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8">
@@ -3172,8 +3166,8 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8">
@@ -3185,8 +3179,8 @@
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8">
@@ -3198,8 +3192,8 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
       <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8">
@@ -3211,8 +3205,8 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8">
@@ -3224,8 +3218,8 @@
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8">
@@ -3237,8 +3231,8 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8">
@@ -3250,8 +3244,8 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8">
@@ -3266,8 +3260,8 @@
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8">
@@ -3282,8 +3276,8 @@
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8">
@@ -3298,8 +3292,8 @@
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8">
@@ -3314,8 +3308,8 @@
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
       <c r="H58" s="10"/>
     </row>
   </sheetData>

--- a/ha-asset/01_design/91_エラーコード.xlsx
+++ b/ha-asset/01_design/91_エラーコード.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31F64E4-222C-4158-A057-B3548737C5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3817AA2-4EA7-482B-BDDB-F90F0D9859E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22305" yWindow="2265" windowWidth="21555" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="810" windowWidth="24630" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="135">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -331,9 +331,6 @@
     <t>健康情報計算API-肺活量計算APIの通信に失敗しました</t>
   </si>
   <si>
-    <t>健康情報計算API-Token発行APIの通信に失敗しました</t>
-  </si>
-  <si>
     <t>健康情報計算API-基礎健康情報計算APIの通信に失敗しました</t>
   </si>
   <si>
@@ -484,6 +481,49 @@
   </si>
   <si>
     <t>入力チェックエラーが発生しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>HEALTH_INFO_REGIST_API_CONNECT_ERROR</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>健康情報登録APIの通信に失敗しました</t>
+    <rPh sb="0" eb="4">
+      <t>ケンコウジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>健康情報計算API-Token発行APIの通信に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>健康管理API-健康情報登録APIの通信に失敗しました</t>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ケンコウジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シッパイ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -688,6 +728,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -700,14 +743,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1190,19 +1278,19 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="21" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="17"/>
@@ -1225,13 +1313,13 @@
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="21">
+      <c r="B4" s="22">
         <v>44030</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="23" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="17"/>
@@ -1260,11 +1348,11 @@
     </row>
     <row r="5" spans="1:27" ht="16.5">
       <c r="A5" s="3"/>
-      <c r="B5" s="23"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="18"/>
@@ -1289,11 +1377,11 @@
     </row>
     <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
@@ -1927,12 +2015,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1942,60 +2078,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2011,8 +2099,8 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -2044,7 +2132,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -2072,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>16</v>
@@ -2098,7 +2186,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>18</v>
@@ -2124,7 +2212,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>20</v>
@@ -2150,7 +2238,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>22</v>
@@ -2176,7 +2264,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>24</v>
@@ -2202,7 +2290,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>26</v>
@@ -2228,7 +2316,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>28</v>
@@ -2254,7 +2342,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>30</v>
@@ -2280,7 +2368,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>33</v>
@@ -2306,7 +2394,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>35</v>
@@ -2332,7 +2420,7 @@
         <v>32</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>37</v>
@@ -2358,7 +2446,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>39</v>
@@ -2384,7 +2472,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>41</v>
@@ -2410,7 +2498,7 @@
         <v>32</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>43</v>
@@ -2436,7 +2524,7 @@
         <v>32</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>45</v>
@@ -2462,7 +2550,7 @@
         <v>32</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>47</v>
@@ -2488,7 +2576,7 @@
         <v>32</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>49</v>
@@ -2514,7 +2602,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>52</v>
@@ -2540,7 +2628,7 @@
         <v>32</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>54</v>
@@ -2566,7 +2654,7 @@
         <v>32</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>56</v>
@@ -2592,7 +2680,7 @@
         <v>32</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>59</v>
@@ -2618,7 +2706,7 @@
         <v>32</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>61</v>
@@ -2644,7 +2732,7 @@
         <v>32</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>63</v>
@@ -2670,7 +2758,7 @@
         <v>32</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>65</v>
@@ -2696,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>67</v>
@@ -2722,7 +2810,7 @@
         <v>32</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>69</v>
@@ -2748,7 +2836,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>72</v>
@@ -2774,7 +2862,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>74</v>
@@ -2800,7 +2888,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>76</v>
@@ -2826,7 +2914,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>78</v>
@@ -2878,10 +2966,10 @@
         <v>15</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H33" s="10"/>
     </row>
@@ -2904,10 +2992,10 @@
         <v>15</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H34" s="10"/>
     </row>
@@ -2930,7 +3018,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>84</v>
@@ -2956,7 +3044,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>86</v>
@@ -2982,7 +3070,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>88</v>
@@ -3008,7 +3096,7 @@
         <v>15</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>91</v>
@@ -3034,10 +3122,10 @@
         <v>15</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="H39" s="10"/>
     </row>
@@ -3046,12 +3134,25 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="B40" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>BE0039</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8">
@@ -3124,7 +3225,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="8"/>
+      <c r="C45" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="14"/>
@@ -3137,7 +3241,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="8"/>
+      <c r="C46" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="14"/>
@@ -3150,7 +3257,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="8"/>
+      <c r="C47" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="14"/>
@@ -3163,7 +3273,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="14"/>
@@ -3176,7 +3289,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="8"/>
+      <c r="C49" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="14"/>
@@ -3189,7 +3305,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="8"/>
+      <c r="C50" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="14"/>
@@ -3202,7 +3321,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="8"/>
+      <c r="C51" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="14"/>
@@ -3215,7 +3337,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="8"/>
+      <c r="C52" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="14"/>
@@ -3228,7 +3353,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="8"/>
+      <c r="C53" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="14"/>
@@ -3241,7 +3369,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="10"/>
-      <c r="C54" s="8"/>
+      <c r="C54" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="14"/>
@@ -3321,62 +3452,92 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="5"/>
-  <conditionalFormatting sqref="D2:D37 D40:D58">
+  <conditionalFormatting sqref="D2:D37 D41:D58">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D37 D41:D58">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D37 D41:D58">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E37 E41:E58">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E37 E41:E58">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+      <formula>"W"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D37 D41:D58">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D39">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D37 D40:D58">
+  <conditionalFormatting sqref="D38:D39">
     <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D37 D40:D58">
+  <conditionalFormatting sqref="D38:D39">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E37 E40:E58">
+  <conditionalFormatting sqref="E38:E39">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E37 E40:E58">
+  <conditionalFormatting sqref="E38:E39">
     <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D37 D40:D58">
+  <conditionalFormatting sqref="D38:D39">
     <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"B"</formula>
     </cfRule>

--- a/ha-asset/01_design/91_エラーコード.xlsx
+++ b/ha-asset/01_design/91_エラーコード.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3817AA2-4EA7-482B-BDDB-F90F0D9859E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5E3175-9272-40D3-8F6F-A12B2067A6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="810" windowWidth="24630" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -728,9 +728,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -742,6 +739,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,19 +1278,19 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="17"/>
@@ -1313,13 +1313,13 @@
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>44030</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="17"/>
@@ -1348,11 +1348,11 @@
     </row>
     <row r="5" spans="1:27" ht="16.5">
       <c r="A5" s="3"/>
-      <c r="B5" s="19"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="20"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="18"/>
@@ -1377,11 +1377,11 @@
     </row>
     <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
@@ -2015,6 +2015,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2024,66 +2084,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2099,8 +2099,8 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -3448,7 +3448,7 @@
   <customSheetViews>
     <customSheetView guid="{9C5975FA-2BBB-426C-A314-4AD02EB0E158}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:G48" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <autoFilter ref="A1:G48" xr:uid="{114087CE-523C-42EE-8FF2-F5239AF76DD8}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="5"/>
